--- a/Docs/03_詳細設計/0301_画面レイアウト/画面レイアウト（お小遣い情報登録画面）.xlsx
+++ b/Docs/03_詳細設計/0301_画面レイアウト/画面レイアウト（お小遣い情報登録画面）.xlsx
@@ -665,10 +665,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -700,6 +696,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -741,7 +741,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="お小遣い情報登録!$D$1:$P$25" spid="_x0000_s1056"/>
+                  <a14:cameraTool cellRange="お小遣い情報登録!$D$1:$P$25" spid="_x0000_s1064"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1170,7 +1170,7 @@
   <dimension ref="A1:M78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+      <selection activeCell="D51" sqref="D51:E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1185,20 +1185,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="34"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="30"/>
       <c r="D1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -1206,14 +1206,14 @@
       <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="35"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="37"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="33"/>
       <c r="D2" s="14"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
@@ -1746,21 +1746,21 @@
       <c r="M39" s="8"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A40" s="32" t="s">
+      <c r="A40" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="B40" s="33"/>
-      <c r="C40" s="34"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="30"/>
       <c r="D40" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E40" s="40" t="str">
+      <c r="E40" s="36" t="str">
         <f t="shared" ref="E40" si="0">$E$1</f>
         <v>お小遣い情報登録</v>
       </c>
-      <c r="F40" s="41"/>
-      <c r="G40" s="41"/>
-      <c r="H40" s="42"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="38"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
@@ -1768,14 +1768,14 @@
       <c r="M40" s="2"/>
     </row>
     <row r="41" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="35"/>
-      <c r="B41" s="36"/>
-      <c r="C41" s="37"/>
+      <c r="A41" s="31"/>
+      <c r="B41" s="32"/>
+      <c r="C41" s="33"/>
       <c r="D41" s="14"/>
-      <c r="E41" s="39"/>
-      <c r="F41" s="39"/>
-      <c r="G41" s="39"/>
-      <c r="H41" s="39"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="35"/>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
@@ -1853,10 +1853,10 @@
       <c r="C45" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D45" s="30" t="s">
+      <c r="D45" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="E45" s="31"/>
+      <c r="E45" s="42"/>
       <c r="F45" s="17"/>
       <c r="G45" s="22" t="s">
         <v>19</v>
@@ -1878,10 +1878,10 @@
       <c r="C46" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="D46" s="28" t="s">
+      <c r="D46" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="E46" s="29"/>
+      <c r="E46" s="40"/>
       <c r="F46" s="25"/>
       <c r="G46" s="23" t="s">
         <v>12</v>
@@ -1903,10 +1903,10 @@
       <c r="C47" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D47" s="28" t="s">
+      <c r="D47" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="E47" s="29"/>
+      <c r="E47" s="40"/>
       <c r="F47" s="15"/>
       <c r="G47" s="23" t="s">
         <v>19</v>
@@ -1928,10 +1928,10 @@
       <c r="C48" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D48" s="28" t="s">
+      <c r="D48" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E48" s="29"/>
+      <c r="E48" s="40"/>
       <c r="F48" s="15">
         <v>10</v>
       </c>
@@ -1957,10 +1957,10 @@
       <c r="C49" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D49" s="28" t="s">
+      <c r="D49" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="E49" s="29"/>
+      <c r="E49" s="40"/>
       <c r="F49" s="15"/>
       <c r="G49" s="23" t="s">
         <v>19</v>
@@ -1982,10 +1982,10 @@
       <c r="C50" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D50" s="28" t="s">
+      <c r="D50" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="E50" s="29"/>
+      <c r="E50" s="40"/>
       <c r="F50" s="15">
         <v>10</v>
       </c>
@@ -2011,10 +2011,10 @@
       <c r="C51" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D51" s="28" t="s">
+      <c r="D51" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="E51" s="29"/>
+      <c r="E51" s="40"/>
       <c r="F51" s="15"/>
       <c r="G51" s="23" t="s">
         <v>21</v>
@@ -2435,12 +2435,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="A40:C41"/>
-    <mergeCell ref="E40:H40"/>
-    <mergeCell ref="E41:H41"/>
     <mergeCell ref="D50:E50"/>
     <mergeCell ref="D51:E51"/>
     <mergeCell ref="D45:E45"/>
@@ -2448,6 +2442,12 @@
     <mergeCell ref="D47:E47"/>
     <mergeCell ref="D49:E49"/>
     <mergeCell ref="D48:E48"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="A40:C41"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="E41:H41"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
